--- a/biology/Botanique/Astragale_pois-chiche/Astragale_pois-chiche.xlsx
+++ b/biology/Botanique/Astragale_pois-chiche/Astragale_pois-chiche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus cicer, en français Astragale pois chiche, est une espèce végétale de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette astragale est une plante herbacée pérenne. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans une grande partie des zones tempérées de l'hémisphère Nord, en Amérique du Nord, en Europe[1], et dans l'ouest de l'Asie jusqu'en Azerbaïdjan. Thermophile, elle pousse dans les prés secs et parmi les buissons.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans une grande partie des zones tempérées de l'hémisphère Nord, en Amérique du Nord, en Europe, et dans l'ouest de l'Asie jusqu'en Azerbaïdjan. Thermophile, elle pousse dans les prés secs et parmi les buissons.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a reçu d'autres appellations, synonymes mais non valides :
 Astragalus microphyllus L.
@@ -610,7 +628,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Alsace.
 </t>
